--- a/Stat reports/Reports/Reports/Филиал Брест/2025/4-у/Филиал Брест_4-у.xlsx
+++ b/Stat reports/Reports/Reports/Филиал Брест/2025/4-у/Филиал Брест_4-у.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kerri\source\repos\Stat-reports_for3.1\Stat reports\Reports\Reports\Филиал Брест\2025\4-у\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407F6AA4-310A-4C07-BFB3-3875BEFCC2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1346A06-ADC7-40E2-96F9-4A889796B5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3720" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3810" yWindow="4410" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Главная" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="102">
   <si>
     <t>ГОСУДАРСТВЕННАЯ СТАТИСТИЧЕСКАЯ ОТЧЕТНОСТЬ</t>
   </si>
@@ -385,6 +385,12 @@
   </si>
   <si>
     <t>sex</t>
+  </si>
+  <si>
+    <t>ыуч</t>
+  </si>
+  <si>
+    <t>пц</t>
   </si>
 </sst>
 </file>
@@ -679,7 +685,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -696,6 +702,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -758,10 +769,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1083,294 +1090,294 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="8"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="11"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="8"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="11"/>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="12"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="15"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="18"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="21"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="8"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="11"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="9" t="s">
+      <c r="I11" s="10"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="8"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="11"/>
     </row>
     <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="10" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="19" t="s">
+      <c r="I12" s="14"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="20" t="s">
+      <c r="L12" s="15"/>
+      <c r="M12" s="23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="21"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="24"/>
     </row>
     <row r="14" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="6" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L14" s="7"/>
-      <c r="M14" s="8"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="11"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="8"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="11"/>
     </row>
     <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="8"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="11"/>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="8"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="11"/>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="8"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="11"/>
     </row>
     <row r="19" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="9" t="s">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9" t="s">
+      <c r="F19" s="10"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="8"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="11"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="6" t="s">
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="6" t="s">
+      <c r="F20" s="10"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="8"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="11"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="9" t="s">
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="9" t="s">
+      <c r="F21" s="10"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="8"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -1409,7 +1416,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1421,33 +1430,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="5" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="24" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="14"/>
+      <c r="E5" s="17"/>
     </row>
     <row r="7" spans="1:5" ht="285" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1618,7 +1627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="A13:C13"/>
     </sheetView>
   </sheetViews>
@@ -1630,27 +1639,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="14"/>
+      <c r="C5" s="17"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1719,13 +1728,13 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="35">
+      <c r="B13" s="8">
         <v>123</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13" s="8">
         <v>12</v>
       </c>
     </row>
@@ -1744,7 +1753,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1755,29 +1766,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="14"/>
+      <c r="D5" s="17"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1817,8 +1828,8 @@
       <c r="C9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>31</v>
+      <c r="D9" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1834,9 +1845,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F12" sqref="A12:F12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1846,27 +1859,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="14"/>
+      <c r="C5" s="17"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1912,107 +1925,129 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+    <row r="11" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C15" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="F13" s="30" t="s">
+      <c r="D15" s="17"/>
+      <c r="F15" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="I13" s="30" t="s">
+      <c r="G15" s="17"/>
+      <c r="I15" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="14"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="C15" s="31" t="s">
+      <c r="J15" s="17"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="C17" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="F15" s="31" t="s">
+      <c r="D17" s="14"/>
+      <c r="F17" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="I15" s="31" t="s">
+      <c r="G17" s="14"/>
+      <c r="I17" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="J15" s="11"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
+      <c r="J17" s="14"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="E19" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="E21" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="E17:J18"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="C15:D16"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="E19:J20"/>
-    <mergeCell ref="F13:G14"/>
-    <mergeCell ref="I13:J14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="E21:J22"/>
+    <mergeCell ref="F15:G16"/>
+    <mergeCell ref="I15:J16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape"/>
